--- a/Data/Excel/Proto/Point.xlsx
+++ b/Data/Excel/Proto/Point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23256C-8C84-40F5-B736-B292BB432BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C4655-C2EC-4388-AD1C-CCB2B2BC1C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="285" windowWidth="12750" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Type</t>
   </si>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>enum:EObjType:pk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_COOKIE_LV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키 레벨업 재화</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -978,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1032,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Proto/Point.xlsx
+++ b/Data/Excel/Proto/Point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C4655-C2EC-4388-AD1C-CCB2B2BC1C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C16AFC-2D1B-42CC-BC68-966CB1F1054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="19065" yWindow="3660" windowWidth="10875" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Type</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>쿠키 레벨업 재화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_NORMAL</t>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_SPECIAL</t>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_DESTINY</t>
+  </si>
+  <si>
+    <t>일반 가챠 재화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슾셜 가챠 재화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명 가챠 재화</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -986,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1061,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Proto/Point.xlsx
+++ b/Data/Excel/Proto/Point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C16AFC-2D1B-42CC-BC68-966CB1F1054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151CF6A-E8E3-4F61-86B1-1733C89CEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="3660" windowWidth="10875" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Type</t>
   </si>
@@ -74,6 +74,29 @@
   <si>
     <t>운명 가챠 재화</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_MILEAGE_NAME</t>
+  </si>
+  <si>
+    <t>POINT_COOKIE_LV_NAME</t>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_NORMAL_NAME</t>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_SPECIAL_NAME</t>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_DESTINY_NAME</t>
   </si>
 </sst>
 </file>
@@ -1007,81 +1030,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C6:C7"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Point.xlsx
+++ b/Data/Excel/Proto/Point.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151CF6A-E8E3-4F61-86B1-1733C89CEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A547456-347B-4D06-AF70-96D16FD48A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="2700" yWindow="1005" windowWidth="15600" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Type</t>
   </si>
@@ -97,6 +97,22 @@
   </si>
   <si>
     <t>POINT_C_GACHA_DESTINY_NAME</t>
+  </si>
+  <si>
+    <t>IconSprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon1#Icon1_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon1#Icon1_15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon1#Icon1_20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1030,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1057,7 @@
     <col min="1" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,8 +1070,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1065,8 +1084,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1106,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1095,8 +1120,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1134,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1117,8 +1148,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1127,6 +1161,9 @@
       </c>
       <c r="C8" t="s">
         <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/Point.xlsx
+++ b/Data/Excel/Proto/Point.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A547456-347B-4D06-AF70-96D16FD48A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF6025-3A71-4231-81A8-6D940197D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1005" windowWidth="15600" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20310" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,6 @@
     <t>POINT_C_GACHA_DESTINY_NAME</t>
   </si>
   <si>
-    <t>IconSprite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon1#Icon1_4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>Icon1#Icon1_20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
